--- a/medicine/Sexualité et sexologie/Florence_Ehnuel/Florence_Ehnuel.xlsx
+++ b/medicine/Sexualité et sexologie/Florence_Ehnuel/Florence_Ehnuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Ehnuel (née en 1966) est une écrivaine française.
 </t>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 9 janvier 1966[1] à Thonon-les-Bains, en Haute-Savoie, fille de professeurs de lettres[2], Emmanuelle Mary est ancienne élève de l'École normale supérieure (ENS ; promotion L1986)[3] et agrégée de philosophie (major du concours 1989)[4]. Elle enseigne la philosophie dans un lycée de la banlieue de Bordeaux[5].
-Ayant opté pour le pseudonyme de « Florence Ehnuel »[6],[7], elle écrit sous ce nom plusieurs ouvrages.
-Vie privée
-Mariée 22 ans à Jean-François Baillon, professeur agrégé d'anglais[8], rencontré à l'ENS, elle a eu avec lui quatre enfants (trois filles et un garçon) ; ils ont divorcé en 2009[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 9 janvier 1966 à Thonon-les-Bains, en Haute-Savoie, fille de professeurs de lettres, Emmanuelle Mary est ancienne élève de l'École normale supérieure (ENS ; promotion L1986) et agrégée de philosophie (major du concours 1989). Elle enseigne la philosophie dans un lycée de la banlieue de Bordeaux.
+Ayant opté pour le pseudonyme de « Florence Ehnuel » elle écrit sous ce nom plusieurs ouvrages.
 </t>
         </is>
       </c>
@@ -542,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ouvrages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'Amour conjugué : essai sur le conjugal et l'adultère, Paris, La Martinière, 2004, 152 p. (ISBN 2-84675-133-1, BNF 40113150).
-En amour sommes-nous des femmes ?, Paris, Le Pommier, coll. « Les Petites Pommes du savoir » (no 96), 2007, 55 p. (ISBN 978-2-7465-0331-1, BNF 41109136).
-Le Beau Sexe des hommes, Paris, Le Seuil, 2008, 125 p. (ISBN 978-2-02-097163-8, BNF 41272915)[9].
-Saisons russes : roman, Paris, Stock, 2009, 151 p. (ISBN 978-2-234-06312-9, BNF 41496811).
-« Philosophe de ma vie », dans Christiane Frémont et François L'Yvonnet (dir.), Michel Serres, Paris, L'Herne, coll. « Cahiers de l'Herne » (no 94), 2010 (ISBN 978-2-85197-155-5, BNF 42285214), p. 292-296.
-Le Bavardage, parlons-en enfin : pour une classe à l'écoute, Paris, Fayard, 2011, 163 p. (ISBN 978-2-213-66836-9, BNF 42579162)[10],[11],[12],[13],[14]
-La reformulation empathique : comment vous comprendre les uns les autres et vous le montrer, Paris, éditions Anne Carrière, 2019, 190 p. (ISBN 978-2-84337-946-8)</t>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mariée 22 ans à Jean-François Baillon, professeur agrégé d'anglais, rencontré à l'ENS, elle a eu avec lui quatre enfants (trois filles et un garçon) ; ils ont divorcé en 2009.
+</t>
         </is>
       </c>
     </row>
@@ -578,12 +591,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Amour conjugué : essai sur le conjugal et l'adultère, Paris, La Martinière, 2004, 152 p. (ISBN 2-84675-133-1, BNF 40113150).
+En amour sommes-nous des femmes ?, Paris, Le Pommier, coll. « Les Petites Pommes du savoir » (no 96), 2007, 55 p. (ISBN 978-2-7465-0331-1, BNF 41109136).
+Le Beau Sexe des hommes, Paris, Le Seuil, 2008, 125 p. (ISBN 978-2-02-097163-8, BNF 41272915).
+Saisons russes : roman, Paris, Stock, 2009, 151 p. (ISBN 978-2-234-06312-9, BNF 41496811).
+« Philosophe de ma vie », dans Christiane Frémont et François L'Yvonnet (dir.), Michel Serres, Paris, L'Herne, coll. « Cahiers de l'Herne » (no 94), 2010 (ISBN 978-2-85197-155-5, BNF 42285214), p. 292-296.
+Le Bavardage, parlons-en enfin : pour une classe à l'écoute, Paris, Fayard, 2011, 163 p. (ISBN 978-2-213-66836-9, BNF 42579162)
+La reformulation empathique : comment vous comprendre les uns les autres et vous le montrer, Paris, éditions Anne Carrière, 2019, 190 p. (ISBN 978-2-84337-946-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Ehnuel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Ehnuel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, elle reçoit le Grand prix Moron de l'Académie française pour L'Amour conjugué[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, elle reçoit le Grand prix Moron de l'Académie française pour L'Amour conjugué.
 </t>
         </is>
       </c>
